--- a/output/1Y_P53_KFSDIV.xlsx
+++ b/output/1Y_P53_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>14.6367</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.0061</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E3" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="F3" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="H3" s="1">
-        <v>8885.9511</v>
+        <v>8850.470499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8885.9511</v>
+        <v>8850.470499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.1114</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>13.835</v>
       </c>
       <c r="C4" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D4" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E4" s="1">
-        <v>1452.0841</v>
+        <v>1449.1793</v>
       </c>
       <c r="F4" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="H4" s="1">
-        <v>20089.5836</v>
+        <v>20009.2537</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20089.5836</v>
+        <v>20009.2537</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.7733</v>
+        <v>13.8009</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>14.4216</v>
       </c>
       <c r="C5" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D5" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E5" s="1">
-        <v>2174.8886</v>
+        <v>2170.5395</v>
       </c>
       <c r="F5" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="H5" s="1">
-        <v>31365.3732</v>
+        <v>31240.1412</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31365.3732</v>
+        <v>31240.1412</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7938</v>
+        <v>13.8214</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0424</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>13.2404</v>
       </c>
       <c r="C6" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D6" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E6" s="1">
-        <v>2868.2929</v>
+        <v>2862.5571</v>
       </c>
       <c r="F6" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="H6" s="1">
-        <v>37977.3456</v>
+        <v>37825.5433</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37977.3456</v>
+        <v>37825.5433</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.9456</v>
+        <v>13.9735</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>782.9598999999999</v>
+        <v>781.3942</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9217.0401</v>
+        <v>-9218.605799999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0819</v>
+        <v>-0.0828</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>12.382</v>
       </c>
       <c r="C7" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D7" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E7" s="1">
-        <v>3623.5571</v>
+        <v>3616.3127</v>
       </c>
       <c r="F7" s="1">
-        <v>816.6574000000001</v>
+        <v>815.0069</v>
       </c>
       <c r="H7" s="1">
-        <v>44866.8842</v>
+        <v>44687.4991</v>
       </c>
       <c r="I7" s="1">
-        <v>782.9598999999999</v>
+        <v>781.3942</v>
       </c>
       <c r="J7" s="1">
-        <v>45649.8441</v>
+        <v>45468.8934</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.7986</v>
+        <v>13.8262</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10111.8514</v>
+        <v>-10111.6277</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0485</v>
+        <v>-0.0493</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>11.9583</v>
       </c>
       <c r="C8" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D8" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E8" s="1">
-        <v>4440.2145</v>
+        <v>4431.3196</v>
       </c>
       <c r="F8" s="1">
-        <v>845.5927</v>
+        <v>843.8804</v>
       </c>
       <c r="H8" s="1">
-        <v>53097.4167</v>
+        <v>52885.1406</v>
       </c>
       <c r="I8" s="1">
-        <v>671.1085</v>
+        <v>669.7665</v>
       </c>
       <c r="J8" s="1">
-        <v>53768.5252</v>
+        <v>53554.9071</v>
       </c>
       <c r="K8" s="1">
-        <v>60111.8514</v>
+        <v>60111.6277</v>
       </c>
       <c r="L8" s="1">
-        <v>13.5381</v>
+        <v>13.5652</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10111.8514</v>
+        <v>-10111.6277</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0338</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>12.2036</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E9" s="1">
-        <v>5285.8072</v>
+        <v>5275.2</v>
       </c>
       <c r="F9" s="1">
-        <v>828.5958000000001</v>
+        <v>826.9173</v>
       </c>
       <c r="H9" s="1">
-        <v>64505.8767</v>
+        <v>64247.7155</v>
       </c>
       <c r="I9" s="1">
-        <v>559.2571</v>
+        <v>558.1387</v>
       </c>
       <c r="J9" s="1">
-        <v>65065.1337</v>
+        <v>64805.8542</v>
       </c>
       <c r="K9" s="1">
-        <v>70223.7028</v>
+        <v>70223.2555</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2853</v>
+        <v>13.312</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1598.4772</v>
+        <v>1595.2751</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8513.3742</v>
+        <v>-8516.352699999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0203</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>12.9136</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E10" s="1">
-        <v>6114.403</v>
+        <v>6102.1173</v>
       </c>
       <c r="F10" s="1">
-        <v>813.9845</v>
+        <v>812.2761</v>
       </c>
       <c r="H10" s="1">
-        <v>78958.95419999999</v>
+        <v>78642.8673</v>
       </c>
       <c r="I10" s="1">
-        <v>2045.8829</v>
+        <v>2041.786</v>
       </c>
       <c r="J10" s="1">
-        <v>81004.837</v>
+        <v>80684.65330000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80335.5542</v>
+        <v>80334.8832</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1387</v>
+        <v>13.1651</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10511.4707</v>
+        <v>-10510.4465</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0791</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>13.4338</v>
       </c>
       <c r="C11" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D11" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E11" s="1">
-        <v>6928.3875</v>
+        <v>6914.3934</v>
       </c>
       <c r="F11" s="1">
-        <v>782.4644</v>
+        <v>780.8247</v>
       </c>
       <c r="H11" s="1">
-        <v>93074.5721</v>
+        <v>92700.58070000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1534.4121</v>
+        <v>1531.3395</v>
       </c>
       <c r="J11" s="1">
-        <v>94608.98420000001</v>
+        <v>94231.92019999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90847.02499999999</v>
+        <v>90845.32980000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1123</v>
+        <v>13.1386</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10511.4707</v>
+        <v>-10510.4465</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0396</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>12.9657</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E12" s="1">
-        <v>7710.8519</v>
+        <v>7695.218</v>
       </c>
       <c r="F12" s="1">
-        <v>810.7137</v>
+        <v>809.0124</v>
       </c>
       <c r="H12" s="1">
-        <v>99976.59299999999</v>
+        <v>99574.5825</v>
       </c>
       <c r="I12" s="1">
-        <v>1022.9414</v>
+        <v>1020.893</v>
       </c>
       <c r="J12" s="1">
-        <v>100999.5344</v>
+        <v>100595.4755</v>
       </c>
       <c r="K12" s="1">
-        <v>101358.4957</v>
+        <v>101355.7763</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1449</v>
+        <v>13.1713</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1870.6646</v>
+        <v>1866.8862</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8640.8061</v>
+        <v>-8643.560299999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0345</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>13.3568</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E13" s="1">
-        <v>8521.5656</v>
+        <v>8504.2305</v>
       </c>
       <c r="F13" s="1">
-        <v>927.0286</v>
+        <v>924.8134</v>
       </c>
       <c r="H13" s="1">
-        <v>113820.848</v>
+        <v>113362.2424</v>
       </c>
       <c r="I13" s="1">
-        <v>2382.1353</v>
+        <v>2377.3327</v>
       </c>
       <c r="J13" s="1">
-        <v>116202.9834</v>
+        <v>115739.5751</v>
       </c>
       <c r="K13" s="1">
-        <v>111869.9664</v>
+        <v>111866.2228</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1279</v>
+        <v>13.1542</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12382.1353</v>
+        <v>-12377.3327</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0469</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>13.2487</v>
       </c>
       <c r="C14" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D14" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E14" s="1">
-        <v>9448.5942</v>
+        <v>9429.043900000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9448.5942</v>
+        <v>-9429.043900000001</v>
       </c>
       <c r="H14" s="1">
-        <v>125181.5903</v>
+        <v>124672.7038</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>125181.5903</v>
+        <v>124672.7038</v>
       </c>
       <c r="K14" s="1">
-        <v>124252.1017</v>
+        <v>124243.5555</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1503</v>
+        <v>13.1767</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125181.5903</v>
+        <v>124672.7038</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0081</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>14.6367</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.0061</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E3" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="F3" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>8885.9511</v>
+        <v>8850.470499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8885.9511</v>
+        <v>8850.470499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.1114</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>13.835</v>
       </c>
       <c r="C4" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D4" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E4" s="1">
-        <v>1452.0841</v>
+        <v>1449.1793</v>
       </c>
       <c r="F4" s="1">
-        <v>716.3293</v>
+        <v>723.5844</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20089.5836</v>
+        <v>20009.2537</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20089.5836</v>
+        <v>20009.2537</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.7733</v>
+        <v>13.8009</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9910.4164</v>
+        <v>-10030.8329</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>14.4216</v>
       </c>
       <c r="C5" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D5" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E5" s="1">
-        <v>2168.4134</v>
+        <v>2172.7637</v>
       </c>
       <c r="F5" s="1">
-        <v>605.2039</v>
+        <v>606.4037</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31271.9913</v>
+        <v>31272.1531</v>
       </c>
       <c r="I5" s="1">
-        <v>89.5836</v>
+        <v>-30.8329</v>
       </c>
       <c r="J5" s="1">
-        <v>31361.5749</v>
+        <v>31241.3203</v>
       </c>
       <c r="K5" s="1">
-        <v>29910.4164</v>
+        <v>30030.8329</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7937</v>
+        <v>13.8215</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8728.0087</v>
+        <v>-8762.8364</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0423</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>13.2404</v>
       </c>
       <c r="C6" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D6" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E6" s="1">
-        <v>2773.6174</v>
+        <v>2779.1674</v>
       </c>
       <c r="F6" s="1">
-        <v>858.0991</v>
+        <v>844.6834</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>36723.8032</v>
+        <v>36723.6396</v>
       </c>
       <c r="I6" s="1">
-        <v>1361.5749</v>
+        <v>1206.3308</v>
       </c>
       <c r="J6" s="1">
-        <v>38085.3781</v>
+        <v>37929.9704</v>
       </c>
       <c r="K6" s="1">
-        <v>38638.4251</v>
+        <v>38793.6692</v>
       </c>
       <c r="L6" s="1">
-        <v>13.9307</v>
+        <v>13.9587</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>780.6288</v>
+        <v>782.1949</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10580.9461</v>
+        <v>-10424.1359</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.07920000000000001</v>
+        <v>-0.0803</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>12.382</v>
       </c>
       <c r="C7" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D7" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E7" s="1">
-        <v>3631.7164</v>
+        <v>3623.8508</v>
       </c>
       <c r="F7" s="1">
-        <v>870.6694</v>
+        <v>869.0553</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>44967.9127</v>
+        <v>44780.6492</v>
       </c>
       <c r="I7" s="1">
-        <v>780.6288</v>
+        <v>782.1949</v>
       </c>
       <c r="J7" s="1">
-        <v>45748.5416</v>
+        <v>45562.8441</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.7676</v>
+        <v>13.7975</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10780.6288</v>
+        <v>-10782.1949</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0486</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>11.9583</v>
       </c>
       <c r="C8" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D8" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E8" s="1">
-        <v>4502.3858</v>
+        <v>4492.9061</v>
       </c>
       <c r="F8" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>53840.8807</v>
+        <v>53620.1383</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>53840.8807</v>
+        <v>53620.1383</v>
       </c>
       <c r="K8" s="1">
-        <v>60780.6288</v>
+        <v>60782.1949</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4996</v>
+        <v>13.5285</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0342</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>12.2036</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E9" s="1">
-        <v>5338.6251</v>
+        <v>5327.4704</v>
       </c>
       <c r="F9" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>65150.4454</v>
+        <v>64884.3274</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>65150.4454</v>
+        <v>64884.3274</v>
       </c>
       <c r="K9" s="1">
-        <v>70780.62880000001</v>
+        <v>70782.1949</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2582</v>
+        <v>13.2863</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1620.8589</v>
+        <v>1617.4462</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8379.141100000001</v>
+        <v>-8382.5538</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0205</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>12.9136</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E10" s="1">
-        <v>6158.0554</v>
+        <v>6145.2589</v>
       </c>
       <c r="F10" s="1">
-        <v>811.3412</v>
+        <v>838.0897</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>79522.6648</v>
+        <v>79198.868</v>
       </c>
       <c r="I10" s="1">
-        <v>1620.8589</v>
+        <v>1617.4462</v>
       </c>
       <c r="J10" s="1">
-        <v>81143.52370000001</v>
+        <v>80816.31419999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80780.62880000001</v>
+        <v>80782.1949</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1179</v>
+        <v>13.1455</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10477.3352</v>
+        <v>-10844.4612</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.07969999999999999</v>
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>13.4338</v>
       </c>
       <c r="C11" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D11" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E11" s="1">
-        <v>6969.3966</v>
+        <v>6983.3486</v>
       </c>
       <c r="F11" s="1">
-        <v>474.5135</v>
+        <v>475.4972</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>93625.4801</v>
+        <v>93625.0563</v>
       </c>
       <c r="I11" s="1">
-        <v>1143.5237</v>
+        <v>772.985</v>
       </c>
       <c r="J11" s="1">
-        <v>94769.00380000001</v>
+        <v>94398.04120000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91257.9641</v>
+        <v>91626.6562</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0941</v>
+        <v>13.1207</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6374.5199</v>
+        <v>-6400.5255</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0398</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>12.9657</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E12" s="1">
-        <v>7443.9101</v>
+        <v>7458.8458</v>
       </c>
       <c r="F12" s="1">
-        <v>1040.0128</v>
+        <v>1042.0584</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>96515.50569999999</v>
+        <v>96515.9731</v>
       </c>
       <c r="I12" s="1">
-        <v>4769.0038</v>
+        <v>4372.4595</v>
       </c>
       <c r="J12" s="1">
-        <v>101284.5095</v>
+        <v>100888.4326</v>
       </c>
       <c r="K12" s="1">
-        <v>97632.48390000001</v>
+        <v>98027.1816</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1158</v>
+        <v>13.1424</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1881.7371</v>
+        <v>1885.5041</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11602.7573</v>
+        <v>-11652.6056</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0333</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>13.3568</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E13" s="1">
-        <v>8483.923000000001</v>
+        <v>8500.904200000001</v>
       </c>
       <c r="F13" s="1">
-        <v>500.2649</v>
+        <v>501.2788</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>113318.0623</v>
+        <v>113317.9029</v>
       </c>
       <c r="I13" s="1">
-        <v>3166.2465</v>
+        <v>2719.8539</v>
       </c>
       <c r="J13" s="1">
-        <v>116484.3088</v>
+        <v>116037.7568</v>
       </c>
       <c r="K13" s="1">
-        <v>111116.9783</v>
+        <v>111565.2914</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0974</v>
+        <v>13.1239</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6681.9377</v>
+        <v>-6708.9155</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0467</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>13.2487</v>
       </c>
       <c r="C14" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D14" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E14" s="1">
-        <v>8984.1878</v>
+        <v>9002.183000000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8984.1878</v>
+        <v>-9002.183000000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119028.8093</v>
+        <v>119028.6645</v>
       </c>
       <c r="I14" s="1">
-        <v>6484.3088</v>
+        <v>6010.9384</v>
       </c>
       <c r="J14" s="1">
-        <v>125513.1181</v>
+        <v>125039.6028</v>
       </c>
       <c r="K14" s="1">
-        <v>117798.916</v>
+        <v>118274.2069</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1118</v>
+        <v>13.1384</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119028.8093</v>
+        <v>119028.6645</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0077</v>
+        <v>-0.007900000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>14.6367</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.0061</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E3" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="F3" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>8885.9511</v>
+        <v>8850.470499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8885.9511</v>
+        <v>8850.470499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.1114</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>13.835</v>
       </c>
       <c r="C4" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D4" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E4" s="1">
-        <v>1452.0841</v>
+        <v>1449.1793</v>
       </c>
       <c r="F4" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20089.5836</v>
+        <v>20009.2537</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20089.5836</v>
+        <v>20009.2537</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.7733</v>
+        <v>13.8009</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>14.4216</v>
       </c>
       <c r="C5" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D5" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E5" s="1">
-        <v>2174.8886</v>
+        <v>2170.5395</v>
       </c>
       <c r="F5" s="1">
-        <v>619.6002999999999</v>
+        <v>629.5412</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31365.3732</v>
+        <v>31240.1412</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31365.3732</v>
+        <v>31240.1412</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7938</v>
+        <v>13.8214</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8935.628000000001</v>
+        <v>-9097.184499999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0424</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>13.2404</v>
       </c>
       <c r="C6" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D6" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E6" s="1">
-        <v>2794.4889</v>
+        <v>2800.0807</v>
       </c>
       <c r="F6" s="1">
-        <v>835.6523999999999</v>
+        <v>821.8058</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>37000.151</v>
+        <v>36999.9861</v>
       </c>
       <c r="I6" s="1">
-        <v>1064.372</v>
+        <v>902.8155</v>
       </c>
       <c r="J6" s="1">
-        <v>38064.5229</v>
+        <v>37902.8016</v>
       </c>
       <c r="K6" s="1">
-        <v>38935.628</v>
+        <v>39097.1845</v>
       </c>
       <c r="L6" s="1">
-        <v>13.933</v>
+        <v>13.9629</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>782.9598999999999</v>
+        <v>781.3942</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10281.4121</v>
+        <v>-10121.4212</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0798</v>
+        <v>-0.0809</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>12.382</v>
       </c>
       <c r="C7" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D7" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E7" s="1">
-        <v>3630.1413</v>
+        <v>3621.8865</v>
       </c>
       <c r="F7" s="1">
-        <v>870.8577</v>
+        <v>868.9906999999999</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>44948.4096</v>
+        <v>44756.3757</v>
       </c>
       <c r="I7" s="1">
-        <v>782.9598999999999</v>
+        <v>781.3942</v>
       </c>
       <c r="J7" s="1">
-        <v>45731.3695</v>
+        <v>45537.77</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.7736</v>
+        <v>13.805</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10782.9599</v>
+        <v>-10781.3942</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0485</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>11.9583</v>
       </c>
       <c r="C8" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D8" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E8" s="1">
-        <v>4500.999</v>
+        <v>4490.8772</v>
       </c>
       <c r="F8" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>53824.2962</v>
+        <v>53595.9251</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>53824.2962</v>
+        <v>53595.9251</v>
       </c>
       <c r="K8" s="1">
-        <v>60782.9599</v>
+        <v>60781.3942</v>
       </c>
       <c r="L8" s="1">
-        <v>13.5043</v>
+        <v>13.5344</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0342</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>12.2036</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E9" s="1">
-        <v>5337.2383</v>
+        <v>5325.4415</v>
       </c>
       <c r="F9" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>65133.5208</v>
+        <v>64859.6176</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>65133.5208</v>
+        <v>64859.6176</v>
       </c>
       <c r="K9" s="1">
-        <v>70782.9599</v>
+        <v>70781.3942</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2621</v>
+        <v>13.2912</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1620.3596</v>
+        <v>1616.7158</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8379.6404</v>
+        <v>-8383.2842</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0205</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>12.9136</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E10" s="1">
-        <v>6156.6686</v>
+        <v>6143.2301</v>
       </c>
       <c r="F10" s="1">
-        <v>899.8544000000001</v>
+        <v>897.7716</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79504.7555</v>
+        <v>79172.7206</v>
       </c>
       <c r="I10" s="1">
-        <v>1620.3596</v>
+        <v>1616.7158</v>
       </c>
       <c r="J10" s="1">
-        <v>81125.1151</v>
+        <v>80789.43640000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80782.9599</v>
+        <v>80781.3942</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1212</v>
+        <v>13.1497</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11620.3596</v>
+        <v>-11616.7158</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.07969999999999999</v>
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>13.4338</v>
       </c>
       <c r="C11" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D11" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E11" s="1">
-        <v>7056.523</v>
+        <v>7041.0017</v>
       </c>
       <c r="F11" s="1">
-        <v>557.128</v>
+        <v>587.9255000000001</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>94795.9184</v>
+        <v>94398.0056</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>94795.9184</v>
+        <v>94398.0056</v>
       </c>
       <c r="K11" s="1">
-        <v>92403.3195</v>
+        <v>92398.11</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0947</v>
+        <v>13.1229</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7484.3457</v>
+        <v>-7913.8889</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0403</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>12.9657</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E12" s="1">
-        <v>7613.6509</v>
+        <v>7628.9272</v>
       </c>
       <c r="F12" s="1">
-        <v>965.2895</v>
+        <v>930.2948</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>98716.3141</v>
+        <v>98716.7922</v>
       </c>
       <c r="I12" s="1">
-        <v>2515.6543</v>
+        <v>2086.1111</v>
       </c>
       <c r="J12" s="1">
-        <v>101231.9684</v>
+        <v>100802.9033</v>
       </c>
       <c r="K12" s="1">
-        <v>99887.6652</v>
+        <v>100311.9989</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1195</v>
+        <v>13.1489</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1905.2612</v>
+        <v>1901.0705</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10610.3931</v>
+        <v>-10185.0406</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.034</v>
+        <v>-0.0344</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>13.3568</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E13" s="1">
-        <v>8578.940500000001</v>
+        <v>8559.222</v>
       </c>
       <c r="F13" s="1">
-        <v>656.477</v>
+        <v>694.6938</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>114587.192</v>
+        <v>114095.2853</v>
       </c>
       <c r="I13" s="1">
-        <v>1905.2612</v>
+        <v>1901.0705</v>
       </c>
       <c r="J13" s="1">
-        <v>116492.4532</v>
+        <v>115996.3558</v>
       </c>
       <c r="K13" s="1">
-        <v>112403.3195</v>
+        <v>112398.11</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1022</v>
+        <v>13.1318</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8768.431699999999</v>
+        <v>-9297.504499999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0473</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>13.2487</v>
       </c>
       <c r="C14" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D14" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E14" s="1">
-        <v>9235.4174</v>
+        <v>9253.9159</v>
       </c>
       <c r="F14" s="1">
-        <v>-9235.4174</v>
+        <v>-9253.9159</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122357.2751</v>
+        <v>122357.1262</v>
       </c>
       <c r="I14" s="1">
-        <v>3136.8295</v>
+        <v>2603.5659</v>
       </c>
       <c r="J14" s="1">
-        <v>125494.1046</v>
+        <v>124960.6921</v>
       </c>
       <c r="K14" s="1">
-        <v>121171.7513</v>
+        <v>121695.6146</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1203</v>
+        <v>13.1507</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122357.2751</v>
+        <v>122357.1262</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.007900000000000001</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>14.6367</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.0061</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E3" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="F3" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>8885.9511</v>
+        <v>8850.470499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8885.9511</v>
+        <v>8850.470499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.1114</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>13.835</v>
       </c>
       <c r="C4" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D4" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E4" s="1">
-        <v>1452.0841</v>
+        <v>1449.1793</v>
       </c>
       <c r="F4" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20089.5836</v>
+        <v>20009.2537</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20089.5836</v>
+        <v>20009.2537</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.7733</v>
+        <v>13.8009</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>14.4216</v>
       </c>
       <c r="C5" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D5" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E5" s="1">
-        <v>2174.8886</v>
+        <v>2170.5395</v>
       </c>
       <c r="F5" s="1">
-        <v>640.6111</v>
+        <v>650.5940000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31365.3732</v>
+        <v>31240.1412</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31365.3732</v>
+        <v>31240.1412</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7938</v>
+        <v>13.8214</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9238.6368</v>
+        <v>-9401.407999999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0424</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>13.2404</v>
       </c>
       <c r="C6" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D6" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E6" s="1">
-        <v>2815.4997</v>
+        <v>2821.1335</v>
       </c>
       <c r="F6" s="1">
-        <v>812.7672</v>
+        <v>798.8748000000001</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>37278.3418</v>
+        <v>37278.1757</v>
       </c>
       <c r="I6" s="1">
-        <v>761.3632</v>
+        <v>598.592</v>
       </c>
       <c r="J6" s="1">
-        <v>38039.705</v>
+        <v>37876.7677</v>
       </c>
       <c r="K6" s="1">
-        <v>39238.6368</v>
+        <v>39401.408</v>
       </c>
       <c r="L6" s="1">
-        <v>13.9367</v>
+        <v>13.9665</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>782.9598999999999</v>
+        <v>781.3942</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9978.4033</v>
+        <v>-9817.197700000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0804</v>
+        <v>-0.08160000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>12.382</v>
       </c>
       <c r="C7" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D7" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E7" s="1">
-        <v>3628.2669</v>
+        <v>3620.0083</v>
       </c>
       <c r="F7" s="1">
-        <v>870.8577</v>
+        <v>868.9906999999999</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>44925.2007</v>
+        <v>44733.1663</v>
       </c>
       <c r="I7" s="1">
-        <v>782.9598999999999</v>
+        <v>781.3942</v>
       </c>
       <c r="J7" s="1">
-        <v>45708.1606</v>
+        <v>45514.5605</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.7807</v>
+        <v>13.8121</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10782.9599</v>
+        <v>-10781.3942</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0485</v>
+        <v>-0.0493</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>11.9583</v>
       </c>
       <c r="C8" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D8" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E8" s="1">
-        <v>4499.1246</v>
+        <v>4488.999</v>
       </c>
       <c r="F8" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>53801.8815</v>
+        <v>53573.5098</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>53801.8815</v>
+        <v>53573.5098</v>
       </c>
       <c r="K8" s="1">
-        <v>60782.9599</v>
+        <v>60781.3942</v>
       </c>
       <c r="L8" s="1">
-        <v>13.51</v>
+        <v>13.5401</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0342</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>12.2036</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E9" s="1">
-        <v>5335.3638</v>
+        <v>5323.5633</v>
       </c>
       <c r="F9" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>65110.6463</v>
+        <v>64836.7424</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>65110.6463</v>
+        <v>64836.7424</v>
       </c>
       <c r="K9" s="1">
-        <v>70782.9599</v>
+        <v>70781.3942</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2668</v>
+        <v>13.2959</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1619.6849</v>
+        <v>1616.0396</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8380.3151</v>
+        <v>-8383.9604</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0205</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>12.9136</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E10" s="1">
-        <v>6154.7942</v>
+        <v>6141.3519</v>
       </c>
       <c r="F10" s="1">
-        <v>899.8021</v>
+        <v>897.7194</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>79480.55009999999</v>
+        <v>79148.5145</v>
       </c>
       <c r="I10" s="1">
-        <v>1619.6849</v>
+        <v>1616.0396</v>
       </c>
       <c r="J10" s="1">
-        <v>81100.235</v>
+        <v>80764.5542</v>
       </c>
       <c r="K10" s="1">
-        <v>80782.9599</v>
+        <v>80781.3942</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1252</v>
+        <v>13.1537</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11619.6849</v>
+        <v>-11616.0396</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.07969999999999999</v>
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>13.4338</v>
       </c>
       <c r="C11" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D11" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E11" s="1">
-        <v>7054.5963</v>
+        <v>7039.0712</v>
       </c>
       <c r="F11" s="1">
-        <v>733.3807</v>
+        <v>742.9034</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>94770.03599999999</v>
+        <v>94372.12390000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>94770.03599999999</v>
+        <v>94372.12390000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92402.6447</v>
+        <v>92397.4339</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0982</v>
+        <v>13.1264</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9852.089400000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0403</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>12.9657</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E12" s="1">
-        <v>7787.977</v>
+        <v>7781.9746</v>
       </c>
       <c r="F12" s="1">
-        <v>782.6736</v>
+        <v>769.7222</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>100976.5734</v>
+        <v>100697.1954</v>
       </c>
       <c r="I12" s="1">
-        <v>147.9106</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>101124.484</v>
+        <v>100697.1954</v>
       </c>
       <c r="K12" s="1">
-        <v>102254.7342</v>
+        <v>102397.4339</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1298</v>
+        <v>13.1583</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1904.741</v>
+        <v>1900.5492</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8243.169599999999</v>
+        <v>-8099.4508</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0348</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>13.3568</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E13" s="1">
-        <v>8570.650600000001</v>
+        <v>8551.6968</v>
       </c>
       <c r="F13" s="1">
-        <v>891.2868999999999</v>
+        <v>889.1889</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>114476.4654</v>
+        <v>113994.9741</v>
       </c>
       <c r="I13" s="1">
-        <v>1904.741</v>
+        <v>1900.5492</v>
       </c>
       <c r="J13" s="1">
-        <v>116381.2064</v>
+        <v>115895.5233</v>
       </c>
       <c r="K13" s="1">
-        <v>112402.6447</v>
+        <v>112397.4339</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1148</v>
+        <v>13.1433</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11904.741</v>
+        <v>-11900.5492</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0473</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>13.2487</v>
       </c>
       <c r="C14" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D14" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E14" s="1">
-        <v>9461.9375</v>
+        <v>9440.8858</v>
       </c>
       <c r="F14" s="1">
-        <v>-9461.9375</v>
+        <v>-9440.8858</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125358.371</v>
+        <v>124829.2801</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>125358.371</v>
+        <v>124829.2801</v>
       </c>
       <c r="K14" s="1">
-        <v>124307.3857</v>
+        <v>124297.9831</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1376</v>
+        <v>13.1659</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125358.371</v>
+        <v>124829.2801</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0081</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>14.6367</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.0061</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E3" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="F3" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>8885.9511</v>
+        <v>8850.470499999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>8885.9511</v>
+        <v>8850.470499999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.1114</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>13.835</v>
       </c>
       <c r="C4" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D4" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E4" s="1">
-        <v>1452.0841</v>
+        <v>1449.1793</v>
       </c>
       <c r="F4" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20089.5836</v>
+        <v>20009.2537</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20089.5836</v>
+        <v>20009.2537</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.7733</v>
+        <v>13.8009</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>14.4216</v>
       </c>
       <c r="C5" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D5" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E5" s="1">
-        <v>2174.8886</v>
+        <v>2170.5395</v>
       </c>
       <c r="F5" s="1">
-        <v>661.7616</v>
+        <v>671.7868</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31365.3732</v>
+        <v>31240.1412</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31365.3732</v>
+        <v>31240.1412</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7938</v>
+        <v>13.8214</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9543.6605</v>
+        <v>-9707.6546</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0424</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>13.2404</v>
       </c>
       <c r="C6" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D6" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E6" s="1">
-        <v>2836.6501</v>
+        <v>2842.3263</v>
       </c>
       <c r="F6" s="1">
-        <v>789.7299</v>
+        <v>775.7913</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>37558.3826</v>
+        <v>37558.2153</v>
       </c>
       <c r="I6" s="1">
-        <v>456.3395</v>
+        <v>292.3454</v>
       </c>
       <c r="J6" s="1">
-        <v>38014.7221</v>
+        <v>37850.5607</v>
       </c>
       <c r="K6" s="1">
-        <v>39543.6605</v>
+        <v>39707.6546</v>
       </c>
       <c r="L6" s="1">
-        <v>13.9403</v>
+        <v>13.9701</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>782.9598999999999</v>
+        <v>781.3942</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9673.3796</v>
+        <v>-9510.9512</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.081</v>
+        <v>-0.0822</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>12.382</v>
       </c>
       <c r="C7" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D7" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E7" s="1">
-        <v>3626.38</v>
+        <v>3618.1176</v>
       </c>
       <c r="F7" s="1">
-        <v>870.8577</v>
+        <v>868.9906999999999</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>44901.8375</v>
+        <v>44709.8024</v>
       </c>
       <c r="I7" s="1">
-        <v>782.9598999999999</v>
+        <v>781.3942</v>
       </c>
       <c r="J7" s="1">
-        <v>45684.7974</v>
+        <v>45491.1967</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.7879</v>
+        <v>13.8193</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10782.9599</v>
+        <v>-10781.3942</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0485</v>
+        <v>-0.0493</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>11.9583</v>
       </c>
       <c r="C8" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D8" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E8" s="1">
-        <v>4497.2377</v>
+        <v>4487.1083</v>
       </c>
       <c r="F8" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>53779.3177</v>
+        <v>53550.9453</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>53779.3177</v>
+        <v>53550.9453</v>
       </c>
       <c r="K8" s="1">
-        <v>60782.9599</v>
+        <v>60781.3942</v>
       </c>
       <c r="L8" s="1">
-        <v>13.5156</v>
+        <v>13.5458</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0342</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>12.2036</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E9" s="1">
-        <v>5333.477</v>
+        <v>5321.6726</v>
       </c>
       <c r="F9" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>65087.6196</v>
+        <v>64813.7152</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>65087.6196</v>
+        <v>64813.7152</v>
       </c>
       <c r="K9" s="1">
-        <v>70782.9599</v>
+        <v>70781.3942</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2714</v>
+        <v>13.3006</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1619.0056</v>
+        <v>1615.359</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8380.9944</v>
+        <v>-8384.641</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0205</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>12.9136</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E10" s="1">
-        <v>6152.9073</v>
+        <v>6139.4612</v>
       </c>
       <c r="F10" s="1">
-        <v>899.7495</v>
+        <v>897.6668</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>79456.1838</v>
+        <v>79124.14750000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1619.0056</v>
+        <v>1615.359</v>
       </c>
       <c r="J10" s="1">
-        <v>81075.1894</v>
+        <v>80739.5065</v>
       </c>
       <c r="K10" s="1">
-        <v>80782.9599</v>
+        <v>80781.3942</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1292</v>
+        <v>13.1577</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11619.0056</v>
+        <v>-11615.359</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.07969999999999999</v>
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>13.4338</v>
       </c>
       <c r="C11" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D11" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E11" s="1">
-        <v>7052.6568</v>
+        <v>7037.1279</v>
       </c>
       <c r="F11" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>94743.98149999999</v>
+        <v>94346.0702</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>94743.98149999999</v>
+        <v>94346.0702</v>
       </c>
       <c r="K11" s="1">
-        <v>92401.96550000001</v>
+        <v>92396.75320000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1017</v>
+        <v>13.1299</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0403</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>12.9657</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E12" s="1">
-        <v>7797.0479</v>
+        <v>7780.0313</v>
       </c>
       <c r="F12" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>101094.1834</v>
+        <v>100672.0494</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>101094.1834</v>
+        <v>100672.0494</v>
       </c>
       <c r="K12" s="1">
-        <v>102401.9655</v>
+        <v>102396.7532</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1334</v>
+        <v>13.1615</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1904.2173</v>
+        <v>1900.0245</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8095.7827</v>
+        <v>-8099.9755</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0348</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>13.3568</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E13" s="1">
-        <v>8568.313599999999</v>
+        <v>8549.753500000001</v>
       </c>
       <c r="F13" s="1">
-        <v>891.2477</v>
+        <v>889.1497000000001</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>114445.2508</v>
+        <v>113969.0696</v>
       </c>
       <c r="I13" s="1">
-        <v>1904.2173</v>
+        <v>1900.0245</v>
       </c>
       <c r="J13" s="1">
-        <v>116349.4682</v>
+        <v>115869.0941</v>
       </c>
       <c r="K13" s="1">
-        <v>112401.9655</v>
+        <v>112396.7532</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1183</v>
+        <v>13.1462</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11904.2173</v>
+        <v>-11900.0245</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0473</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>13.2487</v>
       </c>
       <c r="C14" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D14" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E14" s="1">
-        <v>9459.561299999999</v>
+        <v>9438.9033</v>
       </c>
       <c r="F14" s="1">
-        <v>-9459.561299999999</v>
+        <v>-9438.9033</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125326.8896</v>
+        <v>124803.0669</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>125326.8896</v>
+        <v>124803.0669</v>
       </c>
       <c r="K14" s="1">
-        <v>124306.1828</v>
+        <v>124296.7778</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1408</v>
+        <v>13.1686</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125326.8896</v>
+        <v>124803.0669</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0081</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.1503</v>
+        <v>13.1767</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1118</v>
+        <v>13.1384</v>
       </c>
       <c r="E3" s="1">
-        <v>13.1203</v>
+        <v>13.1507</v>
       </c>
       <c r="F3" s="1">
-        <v>13.1376</v>
+        <v>13.1659</v>
       </c>
       <c r="G3" s="1">
-        <v>13.1408</v>
+        <v>13.1686</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.08</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0262</v>
+        <v>-0.0385</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0216</v>
+        <v>-0.0336</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0219</v>
+        <v>-0.0347</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0235</v>
+        <v>-0.0362</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0241</v>
+        <v>-0.0368</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1935</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2003</v>
+        <v>0.2014</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1993</v>
+        <v>0.2007</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2</v>
+        <v>0.2012</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2003</v>
+        <v>0.2016</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2006</v>
+        <v>0.2018</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.5185999999999999</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.232</v>
+        <v>-0.2921</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.2103</v>
+        <v>-0.2689</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.2112</v>
+        <v>-0.2734</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.2186</v>
+        <v>-0.2805</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.2216</v>
+        <v>-0.2831</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.08160000000000001</v>
+        <v>0.0735</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0881</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0868</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>0.08400000000000001</v>
+        <v>0.0756</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0835</v>
+        <v>0.0752</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4252.1017</v>
+        <v>4243.5555</v>
       </c>
       <c r="D8" s="1">
-        <v>4283.2248</v>
+        <v>4285.1452</v>
       </c>
       <c r="E8" s="1">
-        <v>4308.5807</v>
+        <v>4299.1805</v>
       </c>
       <c r="F8" s="1">
-        <v>4307.3857</v>
+        <v>4297.9831</v>
       </c>
       <c r="G8" s="1">
-        <v>4306.1828</v>
+        <v>4296.7778</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P53_KFSDIV.xlsx
+++ b/output/1Y_P53_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6367</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0061</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.835</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.4216</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.2404</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.382</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.9583</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2036</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9136</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.4338</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9657</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3568</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2487</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6367</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0061</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.835</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.4216</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.2404</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.382</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.9583</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2036</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9136</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.4338</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9657</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3568</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2487</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6367</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0061</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.835</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.4216</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.2404</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.382</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.9583</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2036</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9136</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.4338</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9657</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3568</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2487</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6367</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0061</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.835</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.4216</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.2404</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.382</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.9583</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2036</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9136</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.4338</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9657</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3568</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2487</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6367</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.0061</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.835</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.4216</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.2404</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.382</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.9583</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2036</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9136</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.4338</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.9657</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3568</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2487</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5380.5456</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0035</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0654</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0363</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0059</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0043</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
